--- a/June2021/10.06.2021/Daily Sales Info June-2021.xlsx
+++ b/June2021/10.06.2021/Daily Sales Info June-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="842" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="842" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="107">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>Date:10.06.2021</t>
+  </si>
+  <si>
+    <t>Date:11.06.2021</t>
   </si>
 </sst>
 </file>
@@ -2377,11 +2380,59 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="30" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="33" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="34" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="30" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="30" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2404,56 +2455,8 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="30" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="33" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="34" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16538,8 +16541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -19773,11 +19776,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19788,11 +19791,11 @@
     <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
@@ -19816,7 +19819,7 @@
       <c r="S1" s="220"/>
       <c r="T1" s="220"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="220"/>
       <c r="B2" s="220"/>
       <c r="C2" s="220"/>
@@ -19838,9 +19841,9 @@
       <c r="S2" s="220"/>
       <c r="T2" s="220"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="221" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B3" s="222"/>
       <c r="C3" s="223"/>
@@ -19862,7 +19865,7 @@
       <c r="S3" s="224"/>
       <c r="T3" s="224"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
         <v>1</v>
       </c>
@@ -19913,7 +19916,7 @@
       <c r="S4" s="226"/>
       <c r="T4" s="226"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="225" t="s">
         <v>2</v>
       </c>
@@ -19937,7 +19940,7 @@
       <c r="S5" s="226"/>
       <c r="T5" s="226"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -19999,7 +20002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -20009,43 +20012,56 @@
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="D7" s="21">
+        <v>15424</v>
+      </c>
+      <c r="E7" s="22">
+        <v>825</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1520</v>
+      </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="22">
+        <v>90</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>0</v>
+        <v>47934</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>0</v>
+        <v>47934</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>0</v>
+        <v>1318.1849999999999</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="26">
+        <v>133</v>
+      </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>0</v>
+        <v>46482.815000000002</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>0</v>
+        <v>455.37299999999999</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>322.37299999999999</v>
+      </c>
+      <c r="U7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -20091,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -20101,7 +20117,9 @@
       <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29">
+        <v>20730</v>
+      </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -20112,32 +20130,36 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20730</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20730</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+        <v>570.07500000000005</v>
+      </c>
+      <c r="P9" s="26">
+        <v>12500</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>190</v>
+      </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19969.924999999999</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>196.935</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.9350000000000023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -20147,43 +20169,51 @@
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="29">
+        <v>4308</v>
+      </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="30">
+        <v>70</v>
+      </c>
+      <c r="I10" s="20">
+        <v>6</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4938</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6084</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135.79499999999999</v>
       </c>
       <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="26">
+        <v>28</v>
+      </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5920.2049999999999</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46.911000000000001</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18.911000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -20193,43 +20223,49 @@
       <c r="C11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29">
+        <v>5614</v>
+      </c>
       <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="30">
+        <v>100</v>
+      </c>
       <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30">
+        <v>250</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8864</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8864</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>243.76</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8620.24</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>84.207999999999998</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84.207999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -20239,7 +20275,9 @@
       <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="29">
+        <v>926</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -20250,32 +20288,32 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.465</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>900.53499999999997</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.7970000000000006</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.7970000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -20285,7 +20323,9 @@
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29">
+        <v>1542</v>
+      </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -20296,32 +20336,34 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1542</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1542</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42.405000000000001</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="26">
+        <v>15</v>
+      </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1484.595</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14.648999999999999</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-0.35100000000000087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -20331,43 +20373,49 @@
       <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29">
+        <v>20881</v>
+      </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20">
+        <v>6</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20881</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22027</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>574.22749999999996</v>
       </c>
       <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="26">
+        <v>153</v>
+      </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21299.772499999999</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>198.36949999999999</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45.369499999999988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -20413,7 +20461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -20423,7 +20471,9 @@
       <c r="C16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="29">
+        <v>10071</v>
+      </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -20434,29 +20484,33 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10071</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10071</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+        <v>276.95249999999999</v>
+      </c>
+      <c r="P16" s="26">
+        <v>500</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>84</v>
+      </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9710.0475000000006</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>95.674499999999995</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.674499999999995</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -20513,7 +20567,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -20561,40 +20615,50 @@
       <c r="C19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="29">
+        <v>17166</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="30">
+        <v>40</v>
+      </c>
+      <c r="I19" s="20">
+        <v>10</v>
+      </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17526</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19436</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+        <v>481.96499999999997</v>
+      </c>
+      <c r="P19" s="26">
+        <v>-2000</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>170</v>
+      </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18784.035</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>166.49699999999999</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.5030000000000143</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -20605,9 +20669,11 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="29">
+        <v>8430</v>
+      </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -20618,29 +20684,33 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8430</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8430</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+        <v>231.82499999999999</v>
+      </c>
+      <c r="P20" s="26">
+        <v>-1000</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>120</v>
+      </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8078.1749999999993</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>80.084999999999994</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-39.915000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -20651,42 +20721,52 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="29">
+        <v>8432</v>
+      </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="30">
+        <v>20</v>
+      </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="30">
+        <v>30</v>
+      </c>
+      <c r="I21" s="20">
+        <v>7</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8902</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10239</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>244.80500000000001</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="Q21" s="26">
+        <v>20</v>
+      </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9974.1949999999997</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>84.569000000000003</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>64.569000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -20699,7 +20779,9 @@
       <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="29">
+        <v>12152</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="20"/>
@@ -20710,29 +20792,33 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12152</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12152</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+        <v>334.18</v>
+      </c>
+      <c r="P22" s="26">
+        <v>-2000</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>98</v>
+      </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11719.82</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>115.444</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17.444000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -20881,9 +20967,11 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="D26" s="29">
+        <v>8378</v>
+      </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -20894,29 +20982,31 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8378</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8378</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>230.39500000000001</v>
       </c>
       <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="26">
+        <v>82</v>
+      </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8065.6049999999996</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>79.590999999999994</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2.409000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -20929,40 +21019,48 @@
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>6798</v>
+      </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="39">
+        <v>50</v>
+      </c>
+      <c r="I27" s="31">
+        <v>10</v>
+      </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7248</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9158</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>199.32</v>
       </c>
       <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="41">
+        <v>100</v>
+      </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8858.68</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>68.855999999999995</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-31.144000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20973,15 +21071,15 @@
       <c r="C28" s="213"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
+        <v>140852</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -20989,11 +21087,11 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
@@ -21009,35 +21107,35 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>178522</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>185971</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4909.3550000000005</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>179868.64500000002</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1695.9590000000001</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>502.95899999999995</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21048,15 +21146,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>563239</v>
+        <v>422387</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2190</v>
+        <v>1365</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6620</v>
+        <v>4980</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -21064,11 +21162,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25500</v>
+        <v>24970</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1574</v>
+        <v>1535</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -21420,15 +21518,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>563239</v>
+        <v>422387</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>2190</v>
+        <v>1365</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>6620</v>
+        <v>4980</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
@@ -21436,11 +21534,11 @@
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>25500</v>
+        <v>24970</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>1574</v>
+        <v>1535</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
@@ -22598,15 +22696,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>563239</v>
+        <v>422387</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2190</v>
+        <v>1365</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6620</v>
+        <v>4980</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -22614,11 +22712,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25500</v>
+        <v>24970</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1574</v>
+        <v>1535</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -22970,15 +23068,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>563239</v>
+        <v>422387</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>2190</v>
+        <v>1365</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>6620</v>
+        <v>4980</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
@@ -22986,11 +23084,11 @@
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>25500</v>
+        <v>24970</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>1574</v>
+        <v>1535</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
@@ -24148,15 +24246,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>563239</v>
+        <v>422387</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2190</v>
+        <v>1365</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6620</v>
+        <v>4980</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -24164,11 +24262,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25500</v>
+        <v>24970</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1574</v>
+        <v>1535</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -24520,15 +24618,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>563239</v>
+        <v>422387</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>2190</v>
+        <v>1365</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>6620</v>
+        <v>4980</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
@@ -24536,11 +24634,11 @@
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>25500</v>
+        <v>24970</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>1574</v>
+        <v>1535</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
@@ -25712,15 +25810,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -25728,11 +25826,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -26084,15 +26182,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
@@ -26100,11 +26198,11 @@
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
@@ -27262,15 +27360,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -27278,11 +27376,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -27634,15 +27732,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
@@ -27650,11 +27748,11 @@
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
@@ -28812,15 +28910,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -28828,11 +28926,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -29184,15 +29282,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -29200,11 +29298,11 @@
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
@@ -30362,15 +30460,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -30378,11 +30476,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -30734,15 +30832,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -30750,11 +30848,11 @@
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
@@ -31912,15 +32010,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -31928,11 +32026,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -34166,15 +34264,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -34182,11 +34280,11 @@
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
@@ -35344,15 +35442,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -35360,11 +35458,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -35716,15 +35814,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -35732,11 +35830,11 @@
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
@@ -36894,15 +36992,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -36910,11 +37008,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -37266,15 +37364,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -37282,11 +37380,11 @@
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
@@ -38444,15 +38542,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -38460,11 +38558,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -38816,15 +38914,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -38832,11 +38930,11 @@
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
@@ -39994,15 +40092,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -40010,11 +40108,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -40366,15 +40464,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -40382,11 +40480,11 @@
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
@@ -41544,15 +41642,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -41560,11 +41658,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -41916,15 +42014,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -41932,11 +42030,11 @@
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
@@ -43094,15 +43192,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -43110,11 +43208,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -43466,15 +43564,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -43482,11 +43580,11 @@
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
@@ -44644,15 +44742,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -44660,11 +44758,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -45016,15 +45114,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -45032,11 +45130,11 @@
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
@@ -46194,15 +46292,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -46210,11 +46308,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -46566,15 +46664,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -46582,11 +46680,11 @@
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
@@ -47744,15 +47842,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -47760,11 +47858,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -48116,15 +48214,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -48132,11 +48230,11 @@
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
@@ -49294,15 +49392,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -49310,11 +49408,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -51384,15 +51482,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -51400,11 +51498,11 @@
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
@@ -52562,15 +52660,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -52578,11 +52676,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -52934,15 +53032,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -52950,11 +53048,11 @@
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
@@ -54112,15 +54210,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -54128,11 +54226,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -54656,15 +54754,15 @@
       </c>
       <c r="D7" s="21">
         <f>'1'!D9+'2'!D7+'3'!D7+'4'!D7+'5'!D7+'6'!D7+'7'!D7+'8'!D7+'9'!D7+'10'!D7+'11'!D7+'12'!D7+'13'!D7+'14'!D7+'15'!D7+'16'!D7+'17'!D7+'18'!D7+'19'!D7+'20'!D7+'21'!D7+'22'!D7+'23'!D7+'24'!D7+'25'!D7+'26'!D7+'27'!D7+'28'!D7+'29'!D7+'30'!D7+'31'!D7</f>
-        <v>80948</v>
+        <v>96372</v>
       </c>
       <c r="E7" s="21">
         <f>'1'!E9+'2'!E7+'3'!E7+'4'!E7+'5'!E7+'6'!E7+'7'!E7+'8'!E7+'9'!E7+'10'!E7+'11'!E7+'12'!E7+'13'!E7+'14'!E7+'15'!E7+'16'!E7+'17'!E7+'18'!E7+'19'!E7+'20'!E7+'21'!E7+'22'!E7+'23'!E7+'24'!E7+'25'!E7+'26'!E7+'27'!E7+'28'!E7+'29'!E7+'30'!E7+'31'!E7</f>
-        <v>80</v>
+        <v>905</v>
       </c>
       <c r="F7" s="21">
         <f>'1'!F9+'2'!F7+'3'!F7+'4'!F7+'5'!F7+'6'!F7+'7'!F7+'8'!F7+'9'!F7+'10'!F7+'11'!F7+'12'!F7+'13'!F7+'14'!F7+'15'!F7+'16'!F7+'17'!F7+'18'!F7+'19'!F7+'20'!F7+'21'!F7+'22'!F7+'23'!F7+'24'!F7+'25'!F7+'26'!F7+'27'!F7+'28'!F7+'29'!F7+'30'!F7+'31'!F7</f>
-        <v>170</v>
+        <v>1690</v>
       </c>
       <c r="G7" s="21">
         <f>'1'!G9+'2'!G7+'3'!G7+'4'!G7+'5'!G7+'6'!G7+'7'!G7+'8'!G7+'9'!G7+'10'!G7+'11'!G7+'12'!G7+'13'!G7+'14'!G7+'15'!G7+'16'!G7+'17'!G7+'18'!G7+'19'!G7+'20'!G7+'21'!G7+'22'!G7+'23'!G7+'24'!G7+'25'!G7+'26'!G7+'27'!G7+'28'!G7+'29'!G7+'30'!G7+'31'!G7</f>
@@ -54672,7 +54770,7 @@
       </c>
       <c r="H7" s="21">
         <f>'1'!H9+'2'!H7+'3'!H7+'4'!H7+'5'!H7+'6'!H7+'7'!H7+'8'!H7+'9'!H7+'10'!H7+'11'!H7+'12'!H7+'13'!H7+'14'!H7+'15'!H7+'16'!H7+'17'!H7+'18'!H7+'19'!H7+'20'!H7+'21'!H7+'22'!H7+'23'!H7+'24'!H7+'25'!H7+'26'!H7+'27'!H7+'28'!H7+'29'!H7+'30'!H7+'31'!H7</f>
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="I7" s="21">
         <f>'1'!I9+'2'!I7+'3'!I7+'4'!I7+'5'!I7+'6'!I7+'7'!I7+'8'!I7+'9'!I7+'10'!I7+'11'!I7+'12'!I7+'13'!I7+'14'!I7+'15'!I7+'16'!I7+'17'!I7+'18'!I7+'19'!I7+'20'!I7+'21'!I7+'22'!I7+'23'!I7+'24'!I7+'25'!I7+'26'!I7+'27'!I7+'28'!I7+'29'!I7+'30'!I7+'31'!I7</f>
@@ -54692,32 +54790,32 @@
       </c>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>90008</v>
+        <v>137942</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>100160</v>
+        <v>148094</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>2475.2199999999998</v>
+        <v>3793.4050000000002</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
         <f>'1'!Q9+'2'!Q7+'3'!Q7+'4'!Q7+'5'!Q7+'6'!R7+'7'!Q7+'8'!Q7+'9'!Q7+'10'!Q7+'11'!Q7+'12'!Q7+'13'!Q7+'14'!Q7+'15'!Q7+'16'!Q7+'17'!Q7+'18'!Q7+'19'!Q7+'20'!Q7+'21'!Q7+'22'!Q7+'23'!Q7+'24'!Q7+'25'!Q7+'26'!Q7+'27'!Q7+'28'!Q7+'29'!Q7+'30'!Q7+'31'!Q7</f>
-        <v>827</v>
+        <v>960</v>
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>96857.78</v>
+        <v>143340.595</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>855.07600000000002</v>
+        <v>1310.4490000000001</v>
       </c>
       <c r="T7" s="116">
         <f>S7-Q7</f>
-        <v>28.076000000000022</v>
+        <v>350.44900000000007</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -54808,7 +54906,7 @@
       </c>
       <c r="D9" s="21">
         <f>'1'!D11+'2'!D9+'3'!D9+'4'!D9+'5'!D9+'6'!D9+'7'!D9+'8'!D9+'9'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
-        <v>166168</v>
+        <v>186898</v>
       </c>
       <c r="E9" s="21">
         <f>'1'!E11+'2'!E9+'3'!E9+'4'!E9+'5'!E9+'6'!E9+'7'!E9+'8'!E9+'9'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
@@ -54844,32 +54942,32 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>181818</v>
+        <v>202548</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>186921</v>
+        <v>207651</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>4999.9949999999999</v>
+        <v>5570.07</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26">
         <f>'1'!Q11+'2'!Q9+'3'!Q9+'4'!Q9+'5'!Q9+'6'!R9+'7'!Q9+'8'!Q9+'9'!Q9+'10'!Q9+'11'!Q9+'12'!Q9+'13'!Q9+'14'!Q9+'15'!Q9+'16'!Q9+'17'!Q9+'18'!Q9+'19'!Q9+'20'!Q9+'21'!Q9+'22'!Q9+'23'!Q9+'24'!Q9+'25'!Q9+'26'!Q9+'27'!Q9+'28'!Q9+'29'!Q9+'30'!Q9+'31'!Q9</f>
-        <v>1330</v>
+        <v>1520</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>180591.005</v>
+        <v>200560.93</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>1727.271</v>
+        <v>1924.2059999999999</v>
       </c>
       <c r="T9" s="116">
         <f t="shared" si="5"/>
-        <v>397.27099999999996</v>
+        <v>404.2059999999999</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -54884,7 +54982,7 @@
       </c>
       <c r="D10" s="21">
         <f>'1'!D12+'2'!D10+'3'!D10+'4'!D10+'5'!D10+'6'!D10+'7'!D10+'8'!D10+'9'!D10+'10'!D10+'11'!D10+'12'!D10+'13'!D10+'14'!D10+'15'!D10+'16'!D10+'17'!D10+'18'!D10+'19'!D10+'20'!D10+'21'!D10+'22'!D10+'23'!D10+'24'!D10+'25'!D10+'26'!D10+'27'!D10+'28'!D10+'29'!D10+'30'!D10+'31'!D10</f>
-        <v>35087</v>
+        <v>39395</v>
       </c>
       <c r="E10" s="21">
         <f>'1'!E12+'2'!E10+'3'!E10+'4'!E10+'5'!E10+'6'!E10+'7'!E10+'8'!E10+'9'!E10+'10'!E10+'11'!E10+'12'!E10+'13'!E10+'14'!E10+'15'!E10+'16'!E10+'17'!E10+'18'!E10+'19'!E10+'20'!E10+'21'!E10+'22'!E10+'23'!E10+'24'!E10+'25'!E10+'26'!E10+'27'!E10+'28'!E10+'29'!E10+'30'!E10+'31'!E10</f>
@@ -54900,11 +54998,11 @@
       </c>
       <c r="H10" s="21">
         <f>'1'!H12+'2'!H10+'3'!H10+'4'!H10+'5'!H10+'6'!H10+'7'!H10+'8'!H10+'9'!H10+'10'!H10+'11'!H10+'12'!H10+'13'!H10+'14'!H10+'15'!H10+'16'!H10+'17'!H10+'18'!H10+'19'!H10+'20'!H10+'21'!H10+'22'!H10+'23'!H10+'24'!H10+'25'!H10+'26'!H10+'27'!H10+'28'!H10+'29'!H10+'30'!H10+'31'!H10</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I10" s="21">
         <f>'1'!I12+'2'!I10+'3'!I10+'4'!I10+'5'!I10+'6'!I10+'7'!I10+'8'!I10+'9'!I10+'10'!I10+'11'!I10+'12'!I10+'13'!I10+'14'!I10+'15'!I10+'16'!I10+'17'!I10+'18'!I10+'19'!I10+'20'!I10+'21'!I10+'22'!I10+'23'!I10+'24'!I10+'25'!I10+'26'!I10+'27'!I10+'28'!I10+'29'!I10+'30'!I10+'31'!I10</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J10" s="21">
         <f>'1'!J12+'2'!J10+'3'!J10+'4'!J10+'5'!J10+'6'!J10+'7'!J10+'8'!J10+'9'!J10+'10'!J10+'11'!J10+'12'!J10+'13'!J10+'14'!J10+'15'!J10+'16'!J10+'17'!J10+'18'!J10+'19'!J10+'20'!J10+'21'!J10+'22'!J10+'23'!J10+'24'!J10+'25'!J10+'26'!J10+'27'!J10+'28'!J10+'29'!J10+'30'!J10+'31'!J10</f>
@@ -54920,32 +55018,32 @@
       </c>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>35857</v>
+        <v>40795</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>39677</v>
+        <v>45761</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>986.0675</v>
+        <v>1121.8625</v>
       </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26">
         <f>'1'!Q12+'2'!Q10+'3'!Q10+'4'!Q10+'5'!Q10+'6'!R10+'7'!Q10+'8'!Q10+'9'!Q10+'10'!Q10+'11'!Q10+'12'!Q10+'13'!Q10+'14'!Q10+'15'!Q10+'16'!Q10+'17'!Q10+'18'!Q10+'19'!Q10+'20'!Q10+'21'!Q10+'22'!Q10+'23'!Q10+'24'!Q10+'25'!Q10+'26'!Q10+'27'!Q10+'28'!Q10+'29'!Q10+'30'!Q10+'31'!Q10</f>
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>38452.932500000003</v>
+        <v>44373.137499999997</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>340.64150000000001</v>
+        <v>387.55250000000001</v>
       </c>
       <c r="T10" s="116">
         <f t="shared" si="5"/>
-        <v>102.64150000000001</v>
+        <v>121.55250000000001</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -54960,7 +55058,7 @@
       </c>
       <c r="D11" s="21">
         <f>'1'!D13+'2'!D11+'3'!D11+'4'!D11+'5'!D11+'6'!D11+'7'!D11+'8'!D11+'9'!D11+'10'!D11+'11'!D11+'12'!D11+'13'!D11+'14'!D11+'15'!D11+'16'!D11+'17'!D11+'18'!D11+'19'!D11+'20'!D11+'21'!D11+'22'!D11+'23'!D11+'24'!D11+'25'!D11+'26'!D11+'27'!D11+'28'!D11+'29'!D11+'30'!D11+'31'!D11</f>
-        <v>40839</v>
+        <v>46453</v>
       </c>
       <c r="E11" s="21">
         <f>'1'!E13+'2'!E11+'3'!E11+'4'!E11+'5'!E11+'6'!E11+'7'!E11+'8'!E11+'9'!E11+'10'!E11+'11'!E11+'12'!E11+'13'!E11+'14'!E11+'15'!E11+'16'!E11+'17'!E11+'18'!E11+'19'!E11+'20'!E11+'21'!E11+'22'!E11+'23'!E11+'24'!E11+'25'!E11+'26'!E11+'27'!E11+'28'!E11+'29'!E11+'30'!E11+'31'!E11</f>
@@ -54968,7 +55066,7 @@
       </c>
       <c r="F11" s="21">
         <f>'1'!F13+'2'!F11+'3'!F11+'4'!F11+'5'!F11+'6'!F11+'7'!F11+'8'!F11+'9'!F11+'10'!F11+'11'!F11+'12'!F11+'13'!F11+'14'!F11+'15'!F11+'16'!F11+'17'!F11+'18'!F11+'19'!F11+'20'!F11+'21'!F11+'22'!F11+'23'!F11+'24'!F11+'25'!F11+'26'!F11+'27'!F11+'28'!F11+'29'!F11+'30'!F11+'31'!F11</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G11" s="21">
         <f>'1'!G13+'2'!G11+'3'!G11+'4'!G11+'5'!G11+'6'!G11+'7'!G11+'8'!G11+'9'!G11+'10'!G11+'11'!G11+'12'!G11+'13'!G11+'14'!G11+'15'!G11+'16'!G11+'17'!G11+'18'!G11+'19'!G11+'20'!G11+'21'!G11+'22'!G11+'23'!G11+'24'!G11+'25'!G11+'26'!G11+'27'!G11+'28'!G11+'29'!G11+'30'!G11+'31'!G11</f>
@@ -54976,7 +55074,7 @@
       </c>
       <c r="H11" s="21">
         <f>'1'!H13+'2'!H11+'3'!H11+'4'!H11+'5'!H11+'6'!H11+'7'!H11+'8'!H11+'9'!H11+'10'!H11+'11'!H11+'12'!H11+'13'!H11+'14'!H11+'15'!H11+'16'!H11+'17'!H11+'18'!H11+'19'!H11+'20'!H11+'21'!H11+'22'!H11+'23'!H11+'24'!H11+'25'!H11+'26'!H11+'27'!H11+'28'!H11+'29'!H11+'30'!H11+'31'!H11</f>
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="I11" s="21">
         <f>'1'!I13+'2'!I11+'3'!I11+'4'!I11+'5'!I11+'6'!I11+'7'!I11+'8'!I11+'9'!I11+'10'!I11+'11'!I11+'12'!I11+'13'!I11+'14'!I11+'15'!I11+'16'!I11+'17'!I11+'18'!I11+'19'!I11+'20'!I11+'21'!I11+'22'!I11+'23'!I11+'24'!I11+'25'!I11+'26'!I11+'27'!I11+'28'!I11+'29'!I11+'30'!I11+'31'!I11</f>
@@ -54996,15 +55094,15 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>52289</v>
+        <v>61153</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>55682</v>
+        <v>64546</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>1437.9475</v>
+        <v>1681.7075</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
@@ -55013,15 +55111,15 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>53981.052499999998</v>
+        <v>62601.292500000003</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>496.74549999999999</v>
+        <v>580.95349999999996</v>
       </c>
       <c r="T11" s="116">
         <f t="shared" si="5"/>
-        <v>233.74549999999999</v>
+        <v>317.95349999999996</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55036,7 +55134,7 @@
       </c>
       <c r="D12" s="21">
         <f>'1'!D14+'2'!D12+'3'!D12+'4'!D12+'5'!D12+'6'!D12+'7'!D12+'8'!D12+'9'!D12+'10'!D12+'11'!D12+'12'!D12+'13'!D12+'14'!D12+'15'!D12+'16'!D12+'17'!D12+'18'!D12+'19'!D12+'20'!D12+'21'!D12+'22'!D12+'23'!D12+'24'!D12+'25'!D12+'26'!D12+'27'!D12+'28'!D12+'29'!D12+'30'!D12+'31'!D12</f>
-        <v>42428</v>
+        <v>43354</v>
       </c>
       <c r="E12" s="21">
         <f>'1'!E14+'2'!E12+'3'!E12+'4'!E12+'5'!E12+'6'!E12+'7'!E12+'8'!E12+'9'!E12+'10'!E12+'11'!E12+'12'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12+'20'!E12+'21'!E12+'22'!E12+'23'!E12+'24'!E12+'25'!E12+'26'!E12+'27'!E12+'28'!E12+'29'!E12+'30'!E12+'31'!E12</f>
@@ -55072,15 +55170,15 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>46328</v>
+        <v>47254</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>115964</v>
+        <v>116890</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>1274.02</v>
+        <v>1299.4849999999999</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26">
@@ -55089,15 +55187,15 @@
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>114431.98000000001</v>
+        <v>115332.515</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>440.11599999999999</v>
+        <v>448.91300000000001</v>
       </c>
       <c r="T12" s="116">
         <f t="shared" si="5"/>
-        <v>182.11599999999999</v>
+        <v>190.91300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55112,7 +55210,7 @@
       </c>
       <c r="D13" s="21">
         <f>'1'!D15+'2'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>40738</v>
+        <v>42280</v>
       </c>
       <c r="E13" s="21">
         <f>'1'!E15+'2'!E13+'3'!E13+'4'!E13+'5'!E13+'6'!E13+'7'!E13+'8'!E13+'9'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
@@ -55148,32 +55246,32 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>45658</v>
+        <v>47200</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>79229</v>
+        <v>80771</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>1255.595</v>
+        <v>1298</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
         <f>'1'!Q15+'2'!Q13+'3'!Q13+'4'!Q13+'5'!Q13+'6'!R13+'7'!Q13+'8'!Q13+'9'!Q13+'10'!Q13+'11'!Q13+'12'!Q13+'13'!Q13+'14'!Q13+'15'!Q13+'16'!Q13+'17'!Q13+'18'!Q13+'19'!Q13+'20'!Q13+'21'!Q13+'22'!Q13+'23'!Q13+'24'!Q13+'25'!Q13+'26'!Q13+'27'!Q13+'28'!Q13+'29'!Q13+'30'!Q13+'31'!Q13</f>
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>77604.404999999999</v>
+        <v>79089</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>433.75099999999998</v>
+        <v>448.4</v>
       </c>
       <c r="T13" s="116">
         <f t="shared" si="5"/>
-        <v>64.750999999999976</v>
+        <v>64.399999999999977</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55188,7 +55286,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D16+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>98386</v>
+        <v>119267</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E16+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -55208,7 +55306,7 @@
       </c>
       <c r="I14" s="21">
         <f>'1'!I16+'2'!I14+'3'!I14+'4'!I14+'5'!I14+'6'!I14+'7'!I14+'8'!I14+'9'!I14+'10'!I14+'11'!I14+'12'!I14+'13'!I14+'14'!I14+'15'!I14+'16'!I14+'17'!I14+'18'!I14+'19'!I14+'20'!I14+'21'!I14+'22'!I14+'23'!I14+'24'!I14+'25'!I14+'26'!I14+'27'!I14+'28'!I14+'29'!I14+'30'!I14+'31'!I14</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J14" s="21">
         <f>'1'!J16+'2'!J14+'3'!J14+'4'!J14+'5'!J14+'6'!J14+'7'!J14+'8'!J14+'9'!J14+'10'!J14+'11'!J14+'12'!J14+'13'!J14+'14'!J14+'15'!J14+'16'!J14+'17'!J14+'18'!J14+'19'!J14+'20'!J14+'21'!J14+'22'!J14+'23'!J14+'24'!J14+'25'!J14+'26'!J14+'27'!J14+'28'!J14+'29'!J14+'30'!J14+'31'!J14</f>
@@ -55224,32 +55322,32 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>100636</v>
+        <v>121517</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>119803</v>
+        <v>141830</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>2767.4900000000002</v>
+        <v>3341.7175000000002</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
         <f>'1'!Q16+'2'!Q14+'3'!Q14+'4'!Q14+'5'!Q14+'6'!R14+'7'!Q14+'8'!Q14+'9'!Q14+'10'!Q14+'11'!Q14+'12'!Q14+'13'!Q14+'14'!Q14+'15'!Q14+'16'!Q14+'17'!Q14+'18'!Q14+'19'!Q14+'20'!Q14+'21'!Q14+'22'!Q14+'23'!Q14+'24'!Q14+'25'!Q14+'26'!Q14+'27'!Q14+'28'!Q14+'29'!Q14+'30'!Q14+'31'!Q14</f>
-        <v>1258</v>
+        <v>1411</v>
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>115777.51</v>
+        <v>137077.2825</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>956.04200000000003</v>
+        <v>1154.4114999999999</v>
       </c>
       <c r="T14" s="116">
         <f t="shared" si="5"/>
-        <v>-301.95799999999997</v>
+        <v>-256.58850000000007</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55340,7 +55438,7 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D18+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>122143</v>
+        <v>132214</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E18+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
@@ -55376,32 +55474,32 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>138323</v>
+        <v>148394</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>150457</v>
+        <v>160528</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>3803.8825000000002</v>
+        <v>4080.835</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
         <f>'1'!Q18+'2'!Q16+'3'!Q16+'4'!Q16+'5'!Q16+'6'!R16+'7'!Q16+'8'!Q16+'9'!Q16+'10'!Q16+'11'!Q16+'12'!Q16+'13'!Q16+'14'!Q16+'15'!Q16+'16'!Q16+'17'!Q16+'18'!Q16+'19'!Q16+'20'!Q16+'21'!Q16+'22'!Q16+'23'!Q16+'24'!Q16+'25'!Q16+'26'!Q16+'27'!Q16+'28'!Q16+'29'!Q16+'30'!Q16+'31'!Q16</f>
-        <v>886</v>
+        <v>970</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>145767.11749999999</v>
+        <v>155477.16500000001</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>1314.0684999999999</v>
+        <v>1409.7429999999999</v>
       </c>
       <c r="T16" s="116">
         <f t="shared" si="5"/>
-        <v>428.06849999999986</v>
+        <v>439.74299999999994</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55568,7 +55666,7 @@
       </c>
       <c r="D19" s="21">
         <f>'1'!D21+'2'!D19+'3'!D19+'4'!D19+'5'!D19+'6'!D19+'7'!D19+'8'!D19+'9'!D19+'10'!D19+'11'!D19+'12'!D19+'13'!D19+'14'!D19+'15'!D19+'16'!D19+'17'!D19+'18'!D19+'19'!D19+'20'!D19+'21'!D19+'22'!D19+'23'!D19+'24'!D19+'25'!D19+'26'!D19+'27'!D19+'28'!D19+'29'!D19+'30'!D19+'31'!D19</f>
-        <v>85057</v>
+        <v>102223</v>
       </c>
       <c r="E19" s="21">
         <f>'1'!E21+'2'!E19+'3'!E19+'4'!E19+'5'!E19+'6'!E19+'7'!E19+'8'!E19+'9'!E19+'10'!E19+'11'!E19+'12'!E19+'13'!E19+'14'!E19+'15'!E19+'16'!E19+'17'!E19+'18'!E19+'19'!E19+'20'!E19+'21'!E19+'22'!E19+'23'!E19+'24'!E19+'25'!E19+'26'!E19+'27'!E19+'28'!E19+'29'!E19+'30'!E19+'31'!E19</f>
@@ -55584,11 +55682,11 @@
       </c>
       <c r="H19" s="21">
         <f>'1'!H21+'2'!H19+'3'!H19+'4'!H19+'5'!H19+'6'!H19+'7'!H19+'8'!H19+'9'!H19+'10'!H19+'11'!H19+'12'!H19+'13'!H19+'14'!H19+'15'!H19+'16'!H19+'17'!H19+'18'!H19+'19'!H19+'20'!H19+'21'!H19+'22'!H19+'23'!H19+'24'!H19+'25'!H19+'26'!H19+'27'!H19+'28'!H19+'29'!H19+'30'!H19+'31'!H19</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="I19" s="21">
         <f>'1'!I21+'2'!I19+'3'!I19+'4'!I19+'5'!I19+'6'!I19+'7'!I19+'8'!I19+'9'!I19+'10'!I19+'11'!I19+'12'!I19+'13'!I19+'14'!I19+'15'!I19+'16'!I19+'17'!I19+'18'!I19+'19'!I19+'20'!I19+'21'!I19+'22'!I19+'23'!I19+'24'!I19+'25'!I19+'26'!I19+'27'!I19+'28'!I19+'29'!I19+'30'!I19+'31'!I19</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19" s="21">
         <f>'1'!J21+'2'!J19+'3'!J19+'4'!J19+'5'!J19+'6'!J19+'7'!J19+'8'!J19+'9'!J19+'10'!J19+'11'!J19+'12'!J19+'13'!J19+'14'!J19+'15'!J19+'16'!J19+'17'!J19+'18'!J19+'19'!J19+'20'!J19+'21'!J19+'22'!J19+'23'!J19+'24'!J19+'25'!J19+'26'!J19+'27'!J19+'28'!J19+'29'!J19+'30'!J19+'31'!J19</f>
@@ -55604,32 +55702,32 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>89777</v>
+        <v>107303</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>92597</v>
+        <v>112033</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>2468.8674999999998</v>
+        <v>2950.8325</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26">
         <f>'1'!Q21+'2'!Q19+'3'!Q19+'4'!Q19+'5'!Q19+'6'!R19+'7'!Q19+'8'!Q19+'9'!Q19+'10'!Q19+'11'!Q19+'12'!Q19+'13'!Q19+'14'!Q19+'15'!Q19+'16'!Q19+'17'!Q19+'18'!Q19+'19'!Q19+'20'!Q19+'21'!Q19+'22'!Q19+'23'!Q19+'24'!Q19+'25'!Q19+'26'!Q19+'27'!Q19+'28'!Q19+'29'!Q19+'30'!Q19+'31'!Q19</f>
-        <v>990</v>
+        <v>1160</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>89138.132500000007</v>
+        <v>107922.1675</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>852.88149999999996</v>
+        <v>1019.3785</v>
       </c>
       <c r="T19" s="116">
         <f t="shared" si="5"/>
-        <v>-137.11850000000004</v>
+        <v>-140.62149999999997</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55644,7 +55742,7 @@
       </c>
       <c r="D20" s="21">
         <f>'1'!D22+'2'!D20+'3'!D20+'4'!D20+'5'!D20+'6'!D20+'7'!D20+'8'!D20+'9'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
-        <v>47719</v>
+        <v>56149</v>
       </c>
       <c r="E20" s="21">
         <f>'1'!E22+'2'!E20+'3'!E20+'4'!E20+'5'!E20+'6'!E20+'7'!E20+'8'!E20+'9'!E20+'10'!E20+'11'!E20+'12'!E20+'13'!E20+'14'!E20+'15'!E20+'16'!E20+'17'!E20+'18'!E20+'19'!E20+'20'!E20+'21'!E20+'22'!E20+'23'!E20+'24'!E20+'25'!E20+'26'!E20+'27'!E20+'28'!E20+'29'!E20+'30'!E20+'31'!E20</f>
@@ -55680,32 +55778,32 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>49839</v>
+        <v>58269</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>53897</v>
+        <v>62327</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>1370.5725</v>
+        <v>1602.3975</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26">
         <f>'1'!Q22+'2'!Q20+'3'!Q20+'4'!Q20+'5'!Q20+'6'!R20+'7'!Q20+'8'!Q20+'9'!Q20+'10'!Q20+'11'!Q20+'12'!Q20+'13'!Q20+'14'!Q20+'15'!Q20+'16'!Q20+'17'!Q20+'18'!Q20+'19'!Q20+'20'!Q20+'21'!Q20+'22'!Q20+'23'!Q20+'24'!Q20+'25'!Q20+'26'!Q20+'27'!Q20+'28'!Q20+'29'!Q20+'30'!Q20+'31'!Q20</f>
-        <v>791</v>
+        <v>911</v>
       </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>51735.427499999998</v>
+        <v>59813.602500000001</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>473.47050000000002</v>
+        <v>553.55549999999994</v>
       </c>
       <c r="T20" s="116">
         <f t="shared" si="5"/>
-        <v>-317.52949999999998</v>
+        <v>-357.44450000000006</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55720,7 +55818,7 @@
       </c>
       <c r="D21" s="21">
         <f>'1'!D23+'2'!D21+'3'!D21+'4'!D21+'5'!D21+'6'!D21+'7'!D21+'8'!D21+'9'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
-        <v>33468</v>
+        <v>41900</v>
       </c>
       <c r="E21" s="21">
         <f>'1'!E23+'2'!E21+'3'!E21+'4'!E21+'5'!E21+'6'!E21+'7'!E21+'8'!E21+'9'!E21+'10'!E21+'11'!E21+'12'!E21+'13'!E21+'14'!E21+'15'!E21+'16'!E21+'17'!E21+'18'!E21+'19'!E21+'20'!E21+'21'!E21+'22'!E21+'23'!E21+'24'!E21+'25'!E21+'26'!E21+'27'!E21+'28'!E21+'29'!E21+'30'!E21+'31'!E21</f>
@@ -55728,7 +55826,7 @@
       </c>
       <c r="F21" s="21">
         <f>'1'!F23+'2'!F21+'3'!F21+'4'!F21+'5'!F21+'6'!F21+'7'!F21+'8'!F21+'9'!F21+'10'!F21+'11'!F21+'12'!F21+'13'!F21+'14'!F21+'15'!F21+'16'!F21+'17'!F21+'18'!F21+'19'!F21+'20'!F21+'21'!F21+'22'!F21+'23'!F21+'24'!F21+'25'!F21+'26'!F21+'27'!F21+'28'!F21+'29'!F21+'30'!F21+'31'!F21</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G21" s="21">
         <f>'1'!G23+'2'!G21+'3'!G21+'4'!G21+'5'!G21+'6'!G21+'7'!G21+'8'!G21+'9'!G21+'10'!G21+'11'!G21+'12'!G21+'13'!G21+'14'!G21+'15'!G21+'16'!G21+'17'!G21+'18'!G21+'19'!G21+'20'!G21+'21'!G21+'22'!G21+'23'!G21+'24'!G21+'25'!G21+'26'!G21+'27'!G21+'28'!G21+'29'!G21+'30'!G21+'31'!G21</f>
@@ -55736,11 +55834,11 @@
       </c>
       <c r="H21" s="21">
         <f>'1'!H23+'2'!H21+'3'!H21+'4'!H21+'5'!H21+'6'!H21+'7'!H21+'8'!H21+'9'!H21+'10'!H21+'11'!H21+'12'!H21+'13'!H21+'14'!H21+'15'!H21+'16'!H21+'17'!H21+'18'!H21+'19'!H21+'20'!H21+'21'!H21+'22'!H21+'23'!H21+'24'!H21+'25'!H21+'26'!H21+'27'!H21+'28'!H21+'29'!H21+'30'!H21+'31'!H21</f>
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="I21" s="21">
         <f>'1'!I23+'2'!I21+'3'!I21+'4'!I21+'5'!I21+'6'!I21+'7'!I21+'8'!I21+'9'!I21+'10'!I21+'11'!I21+'12'!I21+'13'!I21+'14'!I21+'15'!I21+'16'!I21+'17'!I21+'18'!I21+'19'!I21+'20'!I21+'21'!I21+'22'!I21+'23'!I21+'24'!I21+'25'!I21+'26'!I21+'27'!I21+'28'!I21+'29'!I21+'30'!I21+'31'!I21</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21" s="21">
         <f>'1'!J23+'2'!J21+'3'!J21+'4'!J21+'5'!J21+'6'!J21+'7'!J21+'8'!J21+'9'!J21+'10'!J21+'11'!J21+'12'!J21+'13'!J21+'14'!J21+'15'!J21+'16'!J21+'17'!J21+'18'!J21+'19'!J21+'20'!J21+'21'!J21+'22'!J21+'23'!J21+'24'!J21+'25'!J21+'26'!J21+'27'!J21+'28'!J21+'29'!J21+'30'!J21+'31'!J21</f>
@@ -55756,32 +55854,32 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>37008</v>
+        <v>45910</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>41201</v>
+        <v>51440</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>1017.72</v>
+        <v>1262.5250000000001</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26">
         <f>'1'!Q23+'2'!Q21+'3'!Q21+'4'!Q21+'5'!Q21+'6'!R21+'7'!Q21+'8'!Q21+'9'!Q21+'10'!Q21+'11'!Q21+'12'!Q21+'13'!Q21+'14'!Q21+'15'!Q21+'16'!Q21+'17'!Q21+'18'!Q21+'19'!Q21+'20'!Q21+'21'!Q21+'22'!Q21+'23'!Q21+'24'!Q21+'25'!Q21+'26'!Q21+'27'!Q21+'28'!Q21+'29'!Q21+'30'!Q21+'31'!Q21</f>
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>40046.28</v>
+        <v>50020.474999999999</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>351.57599999999996</v>
+        <v>436.14499999999998</v>
       </c>
       <c r="T21" s="116">
         <f t="shared" si="5"/>
-        <v>214.57599999999996</v>
+        <v>279.14499999999998</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55796,7 +55894,7 @@
       </c>
       <c r="D22" s="21">
         <f>'1'!D24+'2'!D22+'3'!D22+'4'!D22+'5'!D22+'6'!D22+'7'!D22+'8'!D22+'9'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>138270</v>
+        <v>150422</v>
       </c>
       <c r="E22" s="21">
         <f>'1'!E24+'2'!E22+'3'!E22+'4'!E22+'5'!E22+'6'!E22+'7'!E22+'8'!E22+'9'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
@@ -55832,32 +55930,32 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>156620</v>
+        <v>168772</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>169601</v>
+        <v>181753</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>4307.05</v>
+        <v>4641.2300000000005</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
         <f>'1'!Q24+'2'!Q22+'3'!Q22+'4'!Q22+'5'!Q22+'6'!R22+'7'!Q22+'8'!Q22+'9'!Q22+'10'!Q22+'11'!Q22+'12'!Q22+'13'!Q22+'14'!Q22+'15'!Q22+'16'!Q22+'17'!Q22+'18'!Q22+'19'!Q22+'20'!Q22+'21'!Q22+'22'!Q22+'23'!Q22+'24'!Q22+'25'!Q22+'26'!Q22+'27'!Q22+'28'!Q22+'29'!Q22+'30'!Q22+'31'!Q22</f>
-        <v>1150</v>
+        <v>1248</v>
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>164143.95000000001</v>
+        <v>175863.77</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>1487.8899999999999</v>
+        <v>1603.3340000000001</v>
       </c>
       <c r="T22" s="116">
         <f t="shared" si="5"/>
-        <v>337.88999999999987</v>
+        <v>355.33400000000006</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -56100,7 +56198,7 @@
       </c>
       <c r="D26" s="21">
         <f>'1'!D28+'2'!D26+'3'!D26+'4'!D26+'5'!D26+'6'!D26+'7'!D26+'8'!D26+'9'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
-        <v>48022</v>
+        <v>56400</v>
       </c>
       <c r="E26" s="21">
         <f>'1'!E28+'2'!E26+'3'!E26+'4'!E26+'5'!E26+'6'!E26+'7'!E26+'8'!E26+'9'!E26+'10'!E26+'11'!E26+'12'!E26+'13'!E26+'14'!E26+'15'!E26+'16'!E26+'17'!E26+'18'!E26+'19'!E26+'20'!E26+'21'!E26+'22'!E26+'23'!E26+'24'!E26+'25'!E26+'26'!E26+'27'!E26+'28'!E26+'29'!E26+'30'!E26+'31'!E26</f>
@@ -56136,32 +56234,32 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>52422</v>
+        <v>60800</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>57880</v>
+        <v>66258</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>1441.605</v>
+        <v>1672</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26">
         <f>'1'!Q28+'2'!Q26+'3'!Q26+'4'!Q26+'5'!Q26+'6'!R26+'7'!Q26+'8'!Q26+'9'!Q26+'10'!Q26+'11'!Q26+'12'!Q26+'13'!Q26+'14'!Q26+'15'!Q26+'16'!Q26+'17'!Q26+'18'!Q26+'19'!Q26+'20'!Q26+'21'!Q26+'22'!Q26+'23'!Q26+'24'!Q26+'25'!Q26+'26'!Q26+'27'!Q26+'28'!Q26+'29'!Q26+'30'!Q26+'31'!Q26</f>
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>55996.394999999997</v>
+        <v>64062</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>498.00900000000001</v>
+        <v>577.6</v>
       </c>
       <c r="T26" s="116">
         <f t="shared" si="5"/>
-        <v>56.009000000000015</v>
+        <v>53.600000000000023</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56176,7 +56274,7 @@
       </c>
       <c r="D27" s="21">
         <f>'1'!D29+'2'!D27+'3'!D27+'4'!D27+'5'!D27+'6'!D27+'7'!D27+'8'!D27+'9'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
-        <v>58788</v>
+        <v>65586</v>
       </c>
       <c r="E27" s="21">
         <f>'1'!E29+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27+'20'!E27+'21'!E27+'22'!E27+'23'!E27+'24'!E27+'25'!E27+'26'!E27+'27'!E27+'28'!E27+'29'!E27+'30'!E27+'31'!E27</f>
@@ -56192,11 +56290,11 @@
       </c>
       <c r="H27" s="21">
         <f>'1'!H29+'2'!H27+'3'!H27+'4'!H27+'5'!H27+'6'!H27+'7'!H27+'8'!H27+'9'!H27+'10'!H27+'11'!H27+'12'!H27+'13'!H27+'14'!H27+'15'!H27+'16'!H27+'17'!H27+'18'!H27+'19'!H27+'20'!H27+'21'!H27+'22'!H27+'23'!H27+'24'!H27+'25'!H27+'26'!H27+'27'!H27+'28'!H27+'29'!H27+'30'!H27+'31'!H27</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I27" s="21">
         <f>'1'!I29+'2'!I27+'3'!I27+'4'!I27+'5'!I27+'6'!I27+'7'!I27+'8'!I27+'9'!I27+'10'!I27+'11'!I27+'12'!I27+'13'!I27+'14'!I27+'15'!I27+'16'!I27+'17'!I27+'18'!I27+'19'!I27+'20'!I27+'21'!I27+'22'!I27+'23'!I27+'24'!I27+'25'!I27+'26'!I27+'27'!I27+'28'!I27+'29'!I27+'30'!I27+'31'!I27</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J27" s="21">
         <f>'1'!J29+'2'!J27+'3'!J27+'4'!J27+'5'!J27+'6'!J27+'7'!J27+'8'!J27+'9'!J27+'10'!J27+'11'!J27+'12'!J27+'13'!J27+'14'!J27+'15'!J27+'16'!J27+'17'!J27+'18'!J27+'19'!J27+'20'!J27+'21'!J27+'22'!J27+'23'!J27+'24'!J27+'25'!J27+'26'!J27+'27'!J27+'28'!J27+'29'!J27+'30'!J27+'31'!J27</f>
@@ -56212,32 +56310,32 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>66138</v>
+        <v>73386</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>70913</v>
+        <v>80071</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>1818.7950000000001</v>
+        <v>2018.115</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
         <f>'1'!Q29+'2'!Q27+'3'!Q27+'4'!Q27+'5'!Q27+'6'!R27+'7'!Q27+'8'!Q27+'9'!Q27+'10'!Q27+'11'!Q27+'12'!Q27+'13'!Q27+'14'!Q27+'15'!Q27+'16'!Q27+'17'!Q27+'18'!Q27+'19'!Q27+'20'!Q27+'21'!Q27+'22'!Q27+'23'!Q27+'24'!Q27+'25'!Q27+'26'!Q27+'27'!Q27+'28'!Q27+'29'!Q27+'30'!Q27+'31'!Q27</f>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>67894.205000000002</v>
+        <v>76752.884999999995</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>628.31100000000004</v>
+        <v>697.16700000000003</v>
       </c>
       <c r="T27" s="117">
         <f t="shared" si="5"/>
-        <v>-571.68899999999996</v>
+        <v>-602.83299999999997</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56248,15 +56346,15 @@
       <c r="C28" s="234"/>
       <c r="D28" s="98">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>1685465</v>
+        <v>1826317</v>
       </c>
       <c r="E28" s="99">
         <f t="shared" si="6"/>
-        <v>2610</v>
+        <v>3435</v>
       </c>
       <c r="F28" s="99">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>4030</v>
+        <v>5670</v>
       </c>
       <c r="G28" s="99">
         <f t="shared" si="7"/>
@@ -56264,11 +56362,11 @@
       </c>
       <c r="H28" s="99">
         <f t="shared" si="7"/>
-        <v>8020</v>
+        <v>8550</v>
       </c>
       <c r="I28" s="99">
         <f t="shared" si="7"/>
-        <v>745</v>
+        <v>784</v>
       </c>
       <c r="J28" s="99">
         <f t="shared" si="7"/>
@@ -56284,15 +56382,15 @@
       </c>
       <c r="M28" s="99">
         <f t="shared" si="7"/>
-        <v>1850505</v>
+        <v>2029027</v>
       </c>
       <c r="N28" s="99">
         <f t="shared" si="7"/>
-        <v>2110909</v>
+        <v>2296880</v>
       </c>
       <c r="O28" s="100">
         <f t="shared" si="7"/>
-        <v>50888.887500000012</v>
+        <v>55798.2425</v>
       </c>
       <c r="P28" s="99">
         <f t="shared" si="7"/>
@@ -56300,19 +56398,19 @@
       </c>
       <c r="Q28" s="99">
         <f t="shared" si="7"/>
-        <v>16161</v>
+        <v>17354</v>
       </c>
       <c r="R28" s="99">
         <f t="shared" si="7"/>
-        <v>2043859.1125</v>
+        <v>2223727.7574999998</v>
       </c>
       <c r="S28" s="99">
         <f t="shared" si="7"/>
-        <v>17579.797500000001</v>
+        <v>19275.7565</v>
       </c>
       <c r="T28" s="101">
         <f t="shared" si="7"/>
-        <v>1418.7974999999992</v>
+        <v>1921.7564999999995</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56323,15 +56421,15 @@
       <c r="C29" s="237"/>
       <c r="D29" s="102">
         <f>D4+D5-D28</f>
-        <v>557172</v>
+        <v>416320</v>
       </c>
       <c r="E29" s="102">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2160</v>
+        <v>1335</v>
       </c>
       <c r="F29" s="102">
         <f t="shared" si="8"/>
-        <v>6580</v>
+        <v>4940</v>
       </c>
       <c r="G29" s="102">
         <f t="shared" si="8"/>
@@ -56339,11 +56437,11 @@
       </c>
       <c r="H29" s="102">
         <f t="shared" si="8"/>
-        <v>25340</v>
+        <v>24810</v>
       </c>
       <c r="I29" s="102">
         <f t="shared" si="8"/>
-        <v>1554</v>
+        <v>1515</v>
       </c>
       <c r="J29" s="102">
         <f t="shared" si="8"/>
@@ -56646,15 +56744,15 @@
       <c r="A1" s="119"/>
     </row>
     <row r="2" spans="1:87" s="124" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="269" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="254" t="s">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
       <c r="F2" s="121"/>
       <c r="G2" s="121"/>
       <c r="H2" s="121"/>
@@ -56738,400 +56836,400 @@
       <c r="CH2" s="123"/>
     </row>
     <row r="3" spans="1:87" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="273" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="258" t="s">
+      <c r="D3" s="274" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="259" t="s">
+      <c r="E3" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="260" t="s">
+      <c r="F3" s="263" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="261">
+      <c r="G3" s="259">
         <v>1</v>
       </c>
-      <c r="H3" s="261"/>
-      <c r="I3" s="262" t="s">
+      <c r="H3" s="259"/>
+      <c r="I3" s="276" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="251">
+      <c r="J3" s="266">
         <v>153</v>
       </c>
-      <c r="K3" s="252"/>
-      <c r="L3" s="263" t="s">
+      <c r="K3" s="267"/>
+      <c r="L3" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="251">
+      <c r="M3" s="266">
         <v>154</v>
       </c>
-      <c r="N3" s="252"/>
-      <c r="O3" s="263" t="s">
+      <c r="N3" s="267"/>
+      <c r="O3" s="265" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="251">
+      <c r="P3" s="266">
         <v>155</v>
       </c>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="264" t="s">
+      <c r="Q3" s="267"/>
+      <c r="R3" s="268" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="261">
+      <c r="S3" s="259">
         <v>157</v>
       </c>
-      <c r="T3" s="261"/>
-      <c r="U3" s="260" t="s">
+      <c r="T3" s="259"/>
+      <c r="U3" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="261">
+      <c r="V3" s="259">
         <v>158</v>
       </c>
-      <c r="W3" s="261"/>
-      <c r="X3" s="260" t="s">
+      <c r="W3" s="259"/>
+      <c r="X3" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="261">
+      <c r="Y3" s="259">
         <v>159</v>
       </c>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="260" t="s">
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="263" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="261">
+      <c r="AB3" s="259">
         <v>160</v>
       </c>
-      <c r="AC3" s="261"/>
-      <c r="AD3" s="260" t="s">
+      <c r="AC3" s="259"/>
+      <c r="AD3" s="263" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="261">
+      <c r="AE3" s="259">
         <v>161</v>
       </c>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="260" t="s">
+      <c r="AF3" s="259"/>
+      <c r="AG3" s="263" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="261">
+      <c r="AH3" s="259">
         <v>162</v>
       </c>
-      <c r="AI3" s="265"/>
-      <c r="AJ3" s="266" t="s">
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="260" t="s">
         <v>80</v>
       </c>
-      <c r="AK3" s="261">
+      <c r="AK3" s="259">
         <v>164</v>
       </c>
-      <c r="AL3" s="261"/>
-      <c r="AM3" s="266" t="s">
+      <c r="AL3" s="259"/>
+      <c r="AM3" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="AN3" s="261">
+      <c r="AN3" s="259">
         <v>165</v>
       </c>
-      <c r="AO3" s="261"/>
-      <c r="AP3" s="266" t="s">
+      <c r="AO3" s="259"/>
+      <c r="AP3" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="261">
+      <c r="AQ3" s="259">
         <v>166</v>
       </c>
-      <c r="AR3" s="261"/>
-      <c r="AS3" s="266" t="s">
+      <c r="AR3" s="259"/>
+      <c r="AS3" s="260" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="261">
+      <c r="AT3" s="259">
         <v>167</v>
       </c>
-      <c r="AU3" s="261"/>
-      <c r="AV3" s="266" t="s">
+      <c r="AU3" s="259"/>
+      <c r="AV3" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="AW3" s="261">
+      <c r="AW3" s="259">
         <v>168</v>
       </c>
-      <c r="AX3" s="261"/>
-      <c r="AY3" s="266" t="s">
+      <c r="AX3" s="259"/>
+      <c r="AY3" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="AZ3" s="261">
+      <c r="AZ3" s="259">
         <v>169</v>
       </c>
-      <c r="BA3" s="261"/>
-      <c r="BB3" s="266" t="s">
+      <c r="BA3" s="259"/>
+      <c r="BB3" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="BC3" s="261">
+      <c r="BC3" s="259">
         <v>171</v>
       </c>
-      <c r="BD3" s="261"/>
-      <c r="BE3" s="266" t="s">
+      <c r="BD3" s="259"/>
+      <c r="BE3" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="BF3" s="261">
+      <c r="BF3" s="259">
         <v>172</v>
       </c>
-      <c r="BG3" s="261"/>
-      <c r="BH3" s="266" t="s">
+      <c r="BG3" s="259"/>
+      <c r="BH3" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="BI3" s="261">
+      <c r="BI3" s="259">
         <v>173</v>
       </c>
-      <c r="BJ3" s="261"/>
-      <c r="BK3" s="266" t="s">
+      <c r="BJ3" s="259"/>
+      <c r="BK3" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="BL3" s="261">
+      <c r="BL3" s="259">
         <v>174</v>
       </c>
-      <c r="BM3" s="261"/>
-      <c r="BN3" s="266" t="s">
+      <c r="BM3" s="259"/>
+      <c r="BN3" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="BO3" s="261">
+      <c r="BO3" s="259">
         <v>175</v>
       </c>
-      <c r="BP3" s="261"/>
-      <c r="BQ3" s="266" t="s">
+      <c r="BP3" s="259"/>
+      <c r="BQ3" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="BR3" s="261">
+      <c r="BR3" s="259">
         <v>176</v>
       </c>
-      <c r="BS3" s="261"/>
-      <c r="BT3" s="266" t="s">
+      <c r="BS3" s="259"/>
+      <c r="BT3" s="260" t="s">
         <v>92</v>
       </c>
-      <c r="BU3" s="267">
+      <c r="BU3" s="261">
         <v>178</v>
       </c>
-      <c r="BV3" s="267"/>
-      <c r="BW3" s="266" t="s">
+      <c r="BV3" s="261"/>
+      <c r="BW3" s="260" t="s">
         <v>93</v>
       </c>
-      <c r="BX3" s="268">
+      <c r="BX3" s="262">
         <v>179</v>
       </c>
-      <c r="BY3" s="268"/>
-      <c r="BZ3" s="266" t="s">
+      <c r="BY3" s="262"/>
+      <c r="BZ3" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="CA3" s="261">
+      <c r="CA3" s="259">
         <v>180</v>
       </c>
-      <c r="CB3" s="261"/>
-      <c r="CC3" s="266" t="s">
+      <c r="CB3" s="259"/>
+      <c r="CC3" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="CD3" s="261">
+      <c r="CD3" s="259">
         <v>181</v>
       </c>
-      <c r="CE3" s="261"/>
-      <c r="CF3" s="266" t="s">
+      <c r="CE3" s="259"/>
+      <c r="CF3" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="CG3" s="261">
+      <c r="CG3" s="259">
         <v>182</v>
       </c>
-      <c r="CH3" s="261"/>
+      <c r="CH3" s="259"/>
     </row>
     <row r="4" spans="1:87" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="255"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="260"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="263"/>
       <c r="G4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="262"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="127" t="s">
         <v>97</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="263"/>
+      <c r="L4" s="265"/>
       <c r="M4" s="129" t="s">
         <v>97</v>
       </c>
       <c r="N4" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="O4" s="263"/>
+      <c r="O4" s="265"/>
       <c r="P4" s="129" t="s">
         <v>97</v>
       </c>
       <c r="Q4" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="264"/>
+      <c r="R4" s="268"/>
       <c r="S4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="T4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="260"/>
+      <c r="U4" s="263"/>
       <c r="V4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="W4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="260"/>
+      <c r="X4" s="263"/>
       <c r="Y4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="Z4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AA4" s="260"/>
+      <c r="AA4" s="263"/>
       <c r="AB4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AC4" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" s="260"/>
+      <c r="AD4" s="263"/>
       <c r="AE4" s="132" t="s">
         <v>97</v>
       </c>
       <c r="AF4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AG4" s="260"/>
+      <c r="AG4" s="263"/>
       <c r="AH4" s="132" t="s">
         <v>97</v>
       </c>
       <c r="AI4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AJ4" s="266"/>
+      <c r="AJ4" s="260"/>
       <c r="AK4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AL4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AM4" s="266"/>
+      <c r="AM4" s="260"/>
       <c r="AN4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AO4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AP4" s="266"/>
+      <c r="AP4" s="260"/>
       <c r="AQ4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AR4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AS4" s="266"/>
+      <c r="AS4" s="260"/>
       <c r="AT4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AU4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AV4" s="266"/>
+      <c r="AV4" s="260"/>
       <c r="AW4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AX4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AY4" s="266"/>
+      <c r="AY4" s="260"/>
       <c r="AZ4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BA4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BB4" s="266"/>
+      <c r="BB4" s="260"/>
       <c r="BC4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BD4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BE4" s="266"/>
+      <c r="BE4" s="260"/>
       <c r="BF4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BG4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BH4" s="266"/>
+      <c r="BH4" s="260"/>
       <c r="BI4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BJ4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BK4" s="266"/>
+      <c r="BK4" s="260"/>
       <c r="BL4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BM4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BN4" s="266"/>
+      <c r="BN4" s="260"/>
       <c r="BO4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BP4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BQ4" s="266"/>
+      <c r="BQ4" s="260"/>
       <c r="BR4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BS4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BT4" s="266"/>
+      <c r="BT4" s="260"/>
       <c r="BU4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BV4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BW4" s="266"/>
+      <c r="BW4" s="260"/>
       <c r="BX4" s="133" t="s">
         <v>97</v>
       </c>
       <c r="BY4" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="BZ4" s="266"/>
+      <c r="BZ4" s="260"/>
       <c r="CA4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="CB4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="CC4" s="266"/>
+      <c r="CC4" s="260"/>
       <c r="CD4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="CE4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="CF4" s="266"/>
+      <c r="CF4" s="260"/>
       <c r="CG4" s="125" t="s">
         <v>97</v>
       </c>
@@ -57140,10 +57238,10 @@
       </c>
     </row>
     <row r="5" spans="1:87" s="153" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="271" t="s">
+      <c r="A5" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="256" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="135" t="s">
@@ -57413,8 +57511,8 @@
       <c r="CH5" s="152"/>
     </row>
     <row r="6" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="269"/>
-      <c r="B6" s="272"/>
+      <c r="A6" s="254"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="154" t="s">
         <v>100</v>
       </c>
@@ -57678,8 +57776,8 @@
       <c r="CH6" s="160"/>
     </row>
     <row r="7" spans="1:87" s="171" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="269"/>
-      <c r="B7" s="273" t="s">
+      <c r="A7" s="254"/>
+      <c r="B7" s="258" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="162" t="s">
@@ -57949,8 +58047,8 @@
       <c r="CH7" s="170"/>
     </row>
     <row r="8" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="269"/>
-      <c r="B8" s="272"/>
+      <c r="A8" s="254"/>
+      <c r="B8" s="257"/>
       <c r="C8" s="154" t="s">
         <v>100</v>
       </c>
@@ -58212,8 +58310,8 @@
       <c r="CH8" s="160"/>
     </row>
     <row r="9" spans="1:87" s="174" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="269"/>
-      <c r="B9" s="273" t="s">
+      <c r="A9" s="254"/>
+      <c r="B9" s="258" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="135" t="s">
@@ -58486,8 +58584,8 @@
       </c>
     </row>
     <row r="10" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="269"/>
-      <c r="B10" s="272"/>
+      <c r="A10" s="254"/>
+      <c r="B10" s="257"/>
       <c r="C10" s="175" t="s">
         <v>100</v>
       </c>
@@ -58749,8 +58847,8 @@
       <c r="CH10" s="160"/>
     </row>
     <row r="11" spans="1:87" s="177" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="269"/>
-      <c r="B11" s="273" t="s">
+      <c r="A11" s="254"/>
+      <c r="B11" s="258" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="135" t="s">
@@ -59020,8 +59118,8 @@
       <c r="CH11" s="152"/>
     </row>
     <row r="12" spans="1:87" s="161" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="269"/>
-      <c r="B12" s="272"/>
+      <c r="A12" s="254"/>
+      <c r="B12" s="257"/>
       <c r="C12" s="154" t="s">
         <v>100</v>
       </c>
@@ -59283,8 +59381,8 @@
       <c r="CH12" s="160"/>
     </row>
     <row r="13" spans="1:87" s="178" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="269"/>
-      <c r="B13" s="273" t="s">
+      <c r="A13" s="254"/>
+      <c r="B13" s="258" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="162" t="s">
@@ -59554,8 +59652,8 @@
       <c r="CH13" s="170"/>
     </row>
     <row r="14" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="269"/>
-      <c r="B14" s="272"/>
+      <c r="A14" s="254"/>
+      <c r="B14" s="257"/>
       <c r="C14" s="154" t="s">
         <v>100</v>
       </c>
@@ -59817,8 +59915,8 @@
       <c r="CH14" s="160"/>
     </row>
     <row r="15" spans="1:87" s="177" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="269"/>
-      <c r="B15" s="273" t="s">
+      <c r="A15" s="254"/>
+      <c r="B15" s="258" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="135" t="s">
@@ -60088,8 +60186,8 @@
       <c r="CH15" s="152"/>
     </row>
     <row r="16" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="269"/>
-      <c r="B16" s="272"/>
+      <c r="A16" s="254"/>
+      <c r="B16" s="257"/>
       <c r="C16" s="175" t="s">
         <v>100</v>
       </c>
@@ -60351,8 +60449,8 @@
       <c r="CH16" s="160"/>
     </row>
     <row r="17" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="269"/>
-      <c r="B17" s="274" t="s">
+      <c r="A17" s="254"/>
+      <c r="B17" s="251" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="179" t="s">
@@ -60622,8 +60720,8 @@
       <c r="CH17" s="152"/>
     </row>
     <row r="18" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="269"/>
-      <c r="B18" s="275"/>
+      <c r="A18" s="254"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="175" t="s">
         <v>100</v>
       </c>
@@ -60885,8 +60983,8 @@
       <c r="CH18" s="160"/>
     </row>
     <row r="19" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="269"/>
-      <c r="B19" s="274" t="s">
+      <c r="A19" s="254"/>
+      <c r="B19" s="251" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="179" t="s">
@@ -61156,8 +61254,8 @@
       <c r="CH19" s="152"/>
     </row>
     <row r="20" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="269"/>
-      <c r="B20" s="275"/>
+      <c r="A20" s="254"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="175" t="s">
         <v>100</v>
       </c>
@@ -61419,8 +61517,8 @@
       <c r="CH20" s="160"/>
     </row>
     <row r="21" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="269"/>
-      <c r="B21" s="274" t="s">
+      <c r="A21" s="254"/>
+      <c r="B21" s="251" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="179" t="s">
@@ -61690,8 +61788,8 @@
       <c r="CH21" s="152"/>
     </row>
     <row r="22" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="269"/>
-      <c r="B22" s="275"/>
+      <c r="A22" s="254"/>
+      <c r="B22" s="252"/>
       <c r="C22" s="175" t="s">
         <v>100</v>
       </c>
@@ -61953,8 +62051,8 @@
       <c r="CH22" s="160"/>
     </row>
     <row r="23" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="269"/>
-      <c r="B23" s="274" t="s">
+      <c r="A23" s="254"/>
+      <c r="B23" s="251" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="180" t="s">
@@ -62224,8 +62322,8 @@
       <c r="CH23" s="152"/>
     </row>
     <row r="24" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="269"/>
-      <c r="B24" s="275"/>
+      <c r="A24" s="254"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="175" t="s">
         <v>100</v>
       </c>
@@ -62487,8 +62585,8 @@
       <c r="CH24" s="160"/>
     </row>
     <row r="25" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="269"/>
-      <c r="B25" s="274" t="s">
+      <c r="A25" s="254"/>
+      <c r="B25" s="251" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="179" t="s">
@@ -62758,8 +62856,8 @@
       <c r="CH25" s="152"/>
     </row>
     <row r="26" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="269"/>
-      <c r="B26" s="275"/>
+      <c r="A26" s="254"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="175" t="s">
         <v>100</v>
       </c>
@@ -63021,8 +63119,8 @@
       <c r="CH26" s="160"/>
     </row>
     <row r="27" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="269"/>
-      <c r="B27" s="274" t="s">
+      <c r="A27" s="254"/>
+      <c r="B27" s="251" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="179" t="s">
@@ -63292,8 +63390,8 @@
       <c r="CH27" s="152"/>
     </row>
     <row r="28" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="269"/>
-      <c r="B28" s="275"/>
+      <c r="A28" s="254"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="175" t="s">
         <v>100</v>
       </c>
@@ -63555,8 +63653,8 @@
       <c r="CH28" s="160"/>
     </row>
     <row r="29" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="269"/>
-      <c r="B29" s="274" t="s">
+      <c r="A29" s="254"/>
+      <c r="B29" s="251" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="179" t="s">
@@ -63826,8 +63924,8 @@
       <c r="CH29" s="152"/>
     </row>
     <row r="30" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="269"/>
-      <c r="B30" s="275"/>
+      <c r="A30" s="254"/>
+      <c r="B30" s="252"/>
       <c r="C30" s="175" t="s">
         <v>100</v>
       </c>
@@ -64089,8 +64187,8 @@
       <c r="CH30" s="160"/>
     </row>
     <row r="31" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="269"/>
-      <c r="B31" s="274" t="s">
+      <c r="A31" s="254"/>
+      <c r="B31" s="251" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="179" t="s">
@@ -64360,8 +64458,8 @@
       <c r="CH31" s="152"/>
     </row>
     <row r="32" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="269"/>
-      <c r="B32" s="275"/>
+      <c r="A32" s="254"/>
+      <c r="B32" s="252"/>
       <c r="C32" s="175" t="s">
         <v>100</v>
       </c>
@@ -64623,8 +64721,8 @@
       <c r="CH32" s="160"/>
     </row>
     <row r="33" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="269"/>
-      <c r="B33" s="274" t="s">
+      <c r="A33" s="254"/>
+      <c r="B33" s="251" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="179" t="s">
@@ -64894,8 +64992,8 @@
       <c r="CH33" s="152"/>
     </row>
     <row r="34" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="269"/>
-      <c r="B34" s="275"/>
+      <c r="A34" s="254"/>
+      <c r="B34" s="252"/>
       <c r="C34" s="175" t="s">
         <v>100</v>
       </c>
@@ -65157,8 +65255,8 @@
       <c r="CH34" s="160"/>
     </row>
     <row r="35" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="269"/>
-      <c r="B35" s="274" t="s">
+      <c r="A35" s="254"/>
+      <c r="B35" s="251" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="179" t="s">
@@ -65428,8 +65526,8 @@
       <c r="CH35" s="152"/>
     </row>
     <row r="36" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="269"/>
-      <c r="B36" s="275"/>
+      <c r="A36" s="254"/>
+      <c r="B36" s="252"/>
       <c r="C36" s="175" t="s">
         <v>100</v>
       </c>
@@ -65691,8 +65789,8 @@
       <c r="CH36" s="160"/>
     </row>
     <row r="37" spans="1:86" s="186" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="269"/>
-      <c r="B37" s="276" t="s">
+      <c r="A37" s="254"/>
+      <c r="B37" s="253" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="181" t="s">
@@ -65962,8 +66060,8 @@
       <c r="CH37" s="185"/>
     </row>
     <row r="38" spans="1:86" s="93" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="269"/>
-      <c r="B38" s="276"/>
+      <c r="A38" s="254"/>
+      <c r="B38" s="253"/>
       <c r="C38" s="187" t="s">
         <v>100</v>
       </c>
@@ -66225,8 +66323,8 @@
       <c r="CH38" s="191"/>
     </row>
     <row r="39" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="269"/>
-      <c r="B39" s="274" t="s">
+      <c r="A39" s="254"/>
+      <c r="B39" s="251" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="179" t="s">
@@ -66496,8 +66594,8 @@
       <c r="CH39" s="152"/>
     </row>
     <row r="40" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="269"/>
-      <c r="B40" s="275"/>
+      <c r="A40" s="254"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="175" t="s">
         <v>100</v>
       </c>
@@ -66759,8 +66857,8 @@
       <c r="CH40" s="160"/>
     </row>
     <row r="41" spans="1:86" s="186" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="269"/>
-      <c r="B41" s="276" t="s">
+      <c r="A41" s="254"/>
+      <c r="B41" s="253" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="181" t="s">
@@ -67030,8 +67128,8 @@
       <c r="CH41" s="185"/>
     </row>
     <row r="42" spans="1:86" s="93" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="269"/>
-      <c r="B42" s="276"/>
+      <c r="A42" s="254"/>
+      <c r="B42" s="253"/>
       <c r="C42" s="187" t="s">
         <v>100</v>
       </c>
@@ -67293,8 +67391,8 @@
       <c r="CH42" s="191"/>
     </row>
     <row r="43" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="269"/>
-      <c r="B43" s="274" t="s">
+      <c r="A43" s="254"/>
+      <c r="B43" s="251" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="179" t="s">
@@ -67566,8 +67664,8 @@
       <c r="CH43" s="152"/>
     </row>
     <row r="44" spans="1:86" s="199" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="269"/>
-      <c r="B44" s="275"/>
+      <c r="A44" s="254"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="187" t="s">
         <v>100</v>
       </c>
@@ -67829,8 +67927,8 @@
       <c r="CH44" s="191"/>
     </row>
     <row r="45" spans="1:86" s="200" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="269"/>
-      <c r="B45" s="274" t="s">
+      <c r="A45" s="254"/>
+      <c r="B45" s="251" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="179" t="s">
@@ -68100,8 +68198,8 @@
       <c r="CH45" s="152"/>
     </row>
     <row r="46" spans="1:86" s="208" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="270"/>
-      <c r="B46" s="275"/>
+      <c r="A46" s="255"/>
+      <c r="B46" s="252"/>
       <c r="C46" s="175" t="s">
         <v>100</v>
       </c>
@@ -68372,12 +68470,67 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BH3:BH4"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BK4"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BN4"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="BQ3:BQ4"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="BZ3:BZ4"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CC3:CC4"/>
+    <mergeCell ref="CD3:CE3"/>
+    <mergeCell ref="CF3:CF4"/>
     <mergeCell ref="A5:A46"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -68394,67 +68547,12 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="BQ3:BQ4"/>
-    <mergeCell ref="BR3:BS3"/>
-    <mergeCell ref="BT3:BT4"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BW4"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BZ3:BZ4"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CC3:CC4"/>
-    <mergeCell ref="CD3:CE3"/>
-    <mergeCell ref="CF3:CF4"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BH3:BH4"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BK4"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:XFD4 D6 D4:E4 B3:XFD3 B4 B5:XFD5 K6 I6:J46 H6 E6:G46 N6 L6:M46 Q6 O6:P46 T6 R6:S46 W6 U6:U46 V6:V48 Z6 X6:Y46 AC6 AA6:AB46 AF6 AD6:AE46 AI6 AG6:AH46 AL6 AJ6:AK46 AO6 AM6:AN46 AR6 AP6:AQ46 AU6 AS6:AT46 AX6 AV6:AW46 BA6 AY6:AZ46 BD6 BB6:BC46 BG6 BE6:BF46 BJ6 BH6:BI46 BM6 BK6:BL46 BP6 BN6:BO46 BS6 BQ6:BR46 BV6 BT6:BU46 BY6 BW6:BX46 CB6 BZ6:CA46 CE6 CC6:CD46 CH6:XFD6 CF6:CG46">
     <cfRule type="timePeriod" dxfId="56" priority="51" timePeriod="thisMonth">
@@ -73660,7 +73758,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -75339,8 +75437,8 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
